--- a/BI Charlier/Bruxelles langues.xlsx
+++ b/BI Charlier/Bruxelles langues.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Wrkfldr\Business-Intelligence\BI Charlier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -31,6 +32,12 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>critere</t>
+  </si>
+  <si>
+    <t>nbTélé</t>
   </si>
 </sst>
 </file>
@@ -847,7 +854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1555,4 +1564,811 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="3">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>